--- a/result/10-4_vicuna13-vip_nonvis-optim_500/eval/xlsx/Vicuna_13B_VIP_Patrick_75.xlsx
+++ b/result/10-4_vicuna13-vip_nonvis-optim_500/eval/xlsx/Vicuna_13B_VIP_Patrick_75.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickamadeus/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EC5CDD-FCD1-FE4F-BF53-65F4C020053F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4DD05C-F796-3B44-8720-EBF1D9939CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="760" windowWidth="30240" windowHeight="17420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rules" sheetId="1" r:id="rId1"/>
@@ -1385,12 +1385,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1420,11 +1426,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2431,8 +2441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="156" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="132" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3702,38 +3712,38 @@
         <v>330</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="37" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
         <v>43</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>406</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>-1</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>-1</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>-1</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>-1</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="3">
         <v>-1</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="3" t="s">
         <v>369</v>
       </c>
     </row>
@@ -3783,7 +3793,7 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -3818,7 +3828,7 @@
         <v>3</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40">
         <v>3</v>
@@ -4542,38 +4552,38 @@
         <v>408</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+    <row r="61" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
         <v>47</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="3">
         <v>125</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
         <v>-1</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="3">
         <v>-1</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="3">
         <v>-1</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="3">
         <v>-1</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="3">
         <v>-1</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L61" s="3" t="s">
         <v>373</v>
       </c>
     </row>
@@ -5109,6 +5119,21 @@
       <c r="B77">
         <v>362</v>
       </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
       <c r="I77" t="s">
         <v>109</v>
       </c>
@@ -5128,6 +5153,21 @@
       </c>
       <c r="B78">
         <v>448</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
       </c>
       <c r="I78" t="s">
         <v>78</v>
